--- a/data/case1/15/P2_13.xlsx
+++ b/data/case1/15/P2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.12603137370159345</v>
+        <v>0.077473474454563984</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.068327459378345168</v>
+        <v>-0.0099999998471815843</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999998411229853</v>
+        <v>-0.018082176307787634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399675293706039</v>
+        <v>0.28399768752469967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999998463577953</v>
+        <v>-0.0059999998522961562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.005999999839989556</v>
+        <v>-0.005999999846913795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999805847324</v>
+        <v>-0.019999999820628389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999803676616</v>
+        <v>-0.019999999818497649</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0052586719417568872</v>
+        <v>-0.0059999998416042644</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999998318076564</v>
+        <v>-0.0081760631161955644</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.004499999834990831</v>
+        <v>-0.0044999998417303289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999998306485836</v>
+        <v>-0.0059999998384370201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.005999999827708713</v>
+        <v>-0.0059999998358462037</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999812475792</v>
+        <v>-0.011999999824148233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999998261144327</v>
+        <v>-0.0059999998345743322</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.005999999825453628</v>
+        <v>-0.005999999834060965</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999998246054176</v>
+        <v>-0.0059999998333930549</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999998172149986</v>
+        <v>-0.0089999998277496829</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999998415550841</v>
+        <v>-0.0089999998488909938</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999998400625003</v>
+        <v>-0.0089999998476333332</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999998398289094</v>
+        <v>-0.0089999998474654674</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999998396432801</v>
+        <v>-0.0089999998473393461</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999998396423919</v>
+        <v>-0.0089999998472363174</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999758142614</v>
+        <v>-0.041999999784455788</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999756765938</v>
+        <v>-0.041999999783368658</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999998393216458</v>
+        <v>-0.0059999998464874693</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0072642909182398796</v>
+        <v>-0.0059999998459616677</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999998351676354</v>
+        <v>-0.005999999843653292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999818621987</v>
+        <v>0.011443851331305765</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999798389734</v>
+        <v>-0.01999999981547429</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0087454021156787576</v>
+        <v>-0.021237953633107765</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999794233837</v>
+        <v>-0.020999999811714964</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999998299113955</v>
+        <v>-0.0059999998390924958</v>
       </c>
     </row>
   </sheetData>
